--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H2">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I2">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J2">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>181.8232256666666</v>
+        <v>721.1356606666667</v>
       </c>
       <c r="N2">
-        <v>545.4696769999999</v>
+        <v>2163.406982</v>
       </c>
       <c r="O2">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="P2">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="Q2">
-        <v>1887.210351964604</v>
+        <v>807.7933311162121</v>
       </c>
       <c r="R2">
-        <v>16984.89316768144</v>
+        <v>7270.139980045909</v>
       </c>
       <c r="S2">
-        <v>0.009523971306090622</v>
+        <v>0.001504330089168547</v>
       </c>
       <c r="T2">
-        <v>0.009523971306090621</v>
+        <v>0.001504330089168547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H3">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I3">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J3">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.10336</v>
       </c>
       <c r="O3">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="P3">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="Q3">
-        <v>24.57613152661334</v>
+        <v>2.652319644088889</v>
       </c>
       <c r="R3">
-        <v>221.18518373952</v>
+        <v>23.8708767968</v>
       </c>
       <c r="S3">
-        <v>0.0001240255868830485</v>
+        <v>4.939337938309515E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001240255868830485</v>
+        <v>4.939337938309515E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H4">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I4">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J4">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>372.218789</v>
       </c>
       <c r="O4">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="P4">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="Q4">
-        <v>1287.79871992138</v>
+        <v>138.9825668364939</v>
       </c>
       <c r="R4">
-        <v>11590.18847929242</v>
+        <v>1250.843101528445</v>
       </c>
       <c r="S4">
-        <v>0.006498988331525165</v>
+        <v>0.0002588232028025222</v>
       </c>
       <c r="T4">
-        <v>0.006498988331525163</v>
+        <v>0.0002588232028025222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.8232256666666</v>
+        <v>721.1356606666667</v>
       </c>
       <c r="N5">
-        <v>545.4696769999999</v>
+        <v>2163.406982</v>
       </c>
       <c r="O5">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="P5">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="Q5">
-        <v>109826.9028843242</v>
+        <v>435588.445205879</v>
       </c>
       <c r="R5">
-        <v>988442.1259589181</v>
+        <v>3920296.006852911</v>
       </c>
       <c r="S5">
-        <v>0.5542510248622902</v>
+        <v>0.8111837265503237</v>
       </c>
       <c r="T5">
-        <v>0.5542510248622902</v>
+        <v>0.8111837265503237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.10336</v>
       </c>
       <c r="O6">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="P6">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="Q6">
         <v>1430.217043710009</v>
@@ -818,10 +818,10 @@
         <v>12871.95339339008</v>
       </c>
       <c r="S6">
-        <v>0.007217714798774778</v>
+        <v>0.002663451714712321</v>
       </c>
       <c r="T6">
-        <v>0.007217714798774778</v>
+        <v>0.002663451714712321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>372.218789</v>
       </c>
       <c r="O7">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="P7">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="Q7">
         <v>74943.92175208627</v>
@@ -880,10 +880,10 @@
         <v>674495.2957687766</v>
       </c>
       <c r="S7">
-        <v>0.3782110243247317</v>
+        <v>0.1395658916076608</v>
       </c>
       <c r="T7">
-        <v>0.3782110243247317</v>
+        <v>0.1395658916076608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>181.8232256666666</v>
+        <v>721.1356606666667</v>
       </c>
       <c r="N8">
-        <v>545.4696769999999</v>
+        <v>2163.406982</v>
       </c>
       <c r="O8">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="P8">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="Q8">
-        <v>5162.834734237284</v>
+        <v>20476.5052612834</v>
       </c>
       <c r="R8">
-        <v>46465.51260813556</v>
+        <v>184288.5473515506</v>
       </c>
       <c r="S8">
-        <v>0.02605469486524209</v>
+        <v>0.03813280179350129</v>
       </c>
       <c r="T8">
-        <v>0.02605469486524209</v>
+        <v>0.03813280179350129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.10336</v>
       </c>
       <c r="O9">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="P9">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="Q9">
-        <v>67.23283673528888</v>
+        <v>67.2328367352889</v>
       </c>
       <c r="R9">
-        <v>605.0955306175999</v>
+        <v>605.0955306176</v>
       </c>
       <c r="S9">
-        <v>0.0003392963626059934</v>
+        <v>0.0001252057616535349</v>
       </c>
       <c r="T9">
-        <v>0.0003392963626059934</v>
+        <v>0.0001252057616535349</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>372.218789</v>
       </c>
       <c r="O10">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="P10">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="Q10">
-        <v>3523.026436875498</v>
+        <v>3523.026436875499</v>
       </c>
       <c r="R10">
-        <v>31707.23793187948</v>
+        <v>31707.23793187949</v>
       </c>
       <c r="S10">
-        <v>0.01777925956185632</v>
+        <v>0.006560829942238801</v>
       </c>
       <c r="T10">
-        <v>0.01777925956185632</v>
+        <v>0.006560829942238802</v>
       </c>
     </row>
   </sheetData>
